--- a/Input files/tig_cycle_ex.xlsx
+++ b/Input files/tig_cycle_ex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="7110"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="10515" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Index</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>ADJUST PARAMETERS IN YELLOW TO GENERATE SIN WAVE OF GIVEN AMPLITUDE and MEAN</t>
+  </si>
+  <si>
+    <t>COPY THESE 2 COLUMNS INTO tig_cycle_pct.csv file and save with format 4 decimal places as number</t>
   </si>
 </sst>
 </file>
@@ -3352,7 +3355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -39187,23 +39190,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1440"/>
+  <dimension ref="A1:D1440"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1440"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>7.8872999999999998</v>
       </c>
       <c r="B1">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.8861999999999997</v>
       </c>
@@ -39211,7 +39217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7.8851000000000004</v>
       </c>
@@ -39219,7 +39225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7.8840000000000003</v>
       </c>
@@ -39227,7 +39233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7.883</v>
       </c>
@@ -39235,7 +39241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7.8818999999999999</v>
       </c>
@@ -39243,7 +39249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7.8807999999999998</v>
       </c>
@@ -39251,7 +39257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.8798000000000004</v>
       </c>
@@ -39259,7 +39265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.8788</v>
       </c>
@@ -39267,7 +39273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.8776999999999999</v>
       </c>
@@ -39275,7 +39281,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.8766999999999996</v>
       </c>
@@ -39283,7 +39289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7.8757000000000001</v>
       </c>
@@ -39291,7 +39297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7.8746</v>
       </c>
@@ -39299,7 +39305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7.8735999999999997</v>
       </c>
@@ -39307,7 +39313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.8726000000000003</v>
       </c>
@@ -39315,7 +39321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7.8715999999999999</v>
       </c>
